--- a/word_cloud_weights.xlsx
+++ b/word_cloud_weights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohan/mohanliu.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90A05B7-7225-3543-AE65-6D4486CEA1CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C6181-9380-1F40-AF45-C943640247D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67E4BAEB-0AA2-5B44-B189-53558797203D}"/>
   </bookViews>
@@ -36,9 +36,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>sckit-learn</t>
-  </si>
-  <si>
     <t>C++</t>
   </si>
   <si>
@@ -93,18 +90,12 @@
     <t>SVM</t>
   </si>
   <si>
-    <t>Gradient Boost</t>
-  </si>
-  <si>
     <t>PCA</t>
   </si>
   <si>
     <t>XGBOOST</t>
   </si>
   <si>
-    <t>LightBGM</t>
-  </si>
-  <si>
     <t>NLTK</t>
   </si>
   <si>
@@ -123,9 +114,6 @@
     <t>MongoDB</t>
   </si>
   <si>
-    <t>Web design</t>
-  </si>
-  <si>
     <t>GUI</t>
   </si>
   <si>
@@ -135,7 +123,19 @@
     <t>Keras</t>
   </si>
   <si>
-    <t>Web scrapping</t>
+    <t>scikit-learn</t>
+  </si>
+  <si>
+    <t>Web Design</t>
+  </si>
+  <si>
+    <t>Web Scrapping</t>
+  </si>
+  <si>
+    <t>LightGBM</t>
+  </si>
+  <si>
+    <t>GBDT</t>
   </si>
 </sst>
 </file>
@@ -490,12 +490,12 @@
   <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B35" sqref="A4:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
@@ -508,7 +508,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>50</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>20</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>85</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>83</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>82</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>60</v>
@@ -564,7 +564,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>60</v>
@@ -572,7 +572,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>68</v>
@@ -580,7 +580,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>90</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>80</v>
@@ -596,7 +596,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>60</v>
@@ -604,7 +604,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>30</v>
@@ -612,7 +612,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>40</v>
@@ -620,7 +620,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>42</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>78</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>70</v>
@@ -644,7 +644,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>82</v>
@@ -652,7 +652,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>68</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="B21">
         <v>75</v>
@@ -668,7 +668,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>77</v>
@@ -676,7 +676,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>40</v>
@@ -684,7 +684,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="B24">
         <v>70</v>
@@ -692,7 +692,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25">
         <v>50</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B26">
         <v>40</v>
@@ -708,7 +708,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B27">
         <v>70</v>
@@ -716,7 +716,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B28">
         <v>80</v>
@@ -724,7 +724,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B29">
         <v>82</v>
@@ -732,7 +732,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B30">
         <v>30</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>60</v>
@@ -748,7 +748,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B32">
         <v>40</v>
@@ -756,7 +756,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B33">
         <v>40</v>
@@ -764,7 +764,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B34">
         <v>50</v>
@@ -772,7 +772,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>70</v>

--- a/word_cloud_weights.xlsx
+++ b/word_cloud_weights.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohan/mohanliu.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumohan/mohanliu.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58C6181-9380-1F40-AF45-C943640247D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{67E4BAEB-0AA2-5B44-B189-53558797203D}"/>
+    <workbookView xWindow="1640" yWindow="460" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Python</t>
   </si>
@@ -42,18 +47,6 @@
     <t>R</t>
   </si>
   <si>
-    <t>Data Science</t>
-  </si>
-  <si>
-    <t>Data Analytics</t>
-  </si>
-  <si>
-    <t>Data Engineering</t>
-  </si>
-  <si>
-    <t>ETL</t>
-  </si>
-  <si>
     <t>EDA</t>
   </si>
   <si>
@@ -93,9 +86,6 @@
     <t>PCA</t>
   </si>
   <si>
-    <t>XGBOOST</t>
-  </si>
-  <si>
     <t>NLTK</t>
   </si>
   <si>
@@ -105,18 +95,9 @@
     <t>Pandas</t>
   </si>
   <si>
-    <t>Web/Data API</t>
-  </si>
-  <si>
     <t>MySQL</t>
   </si>
   <si>
-    <t>MongoDB</t>
-  </si>
-  <si>
-    <t>GUI</t>
-  </si>
-  <si>
     <t>html/css/javascript</t>
   </si>
   <si>
@@ -136,12 +117,24 @@
   </si>
   <si>
     <t>GBDT</t>
+  </si>
+  <si>
+    <t>Restful API</t>
+  </si>
+  <si>
+    <t>Dynamic Programming</t>
+  </si>
+  <si>
+    <t>DFS/BFS</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -486,11 +479,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8E96B2C-AF27-FA4F-9668-AAECF5ABB06C}">
-  <dimension ref="A1:B35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B35" sqref="A4:B35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -508,7 +501,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>80</v>
@@ -519,7 +512,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -527,7 +520,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -535,7 +528,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>85</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -543,7 +536,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -551,7 +544,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>82</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -559,7 +552,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -575,7 +568,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>68</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -583,7 +576,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>90</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -591,7 +584,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>80</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -599,7 +592,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -607,7 +600,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -615,7 +608,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>40</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -623,84 +616,84 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B17">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
-        <v>70</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B21">
-        <v>75</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>40</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="B24">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B26">
         <v>40</v>
@@ -708,10 +701,10 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -719,63 +712,31 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>80</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B29">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B30">
-        <v>30</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>27</v>
-      </c>
-      <c r="B32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35">
-        <v>70</v>
       </c>
     </row>
   </sheetData>

--- a/word_cloud_weights.xlsx
+++ b/word_cloud_weights.xlsx
@@ -1,42 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27011"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liumohan/mohanliu.github.io/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mohan/mohanliu.github.io/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CC8BC40-B55B-4549-9B16-30E1C02694A8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1640" yWindow="460" windowWidth="28800" windowHeight="18000"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
   <si>
     <t>Python</t>
   </si>
@@ -129,12 +125,39 @@
   </si>
   <si>
     <t>Backtracking</t>
+  </si>
+  <si>
+    <t>Computer Vision</t>
+  </si>
+  <si>
+    <t>Weakly-supervised Learning</t>
+  </si>
+  <si>
+    <t>Semantic Segmentation</t>
+  </si>
+  <si>
+    <t>Object Detection</t>
+  </si>
+  <si>
+    <t>Localization</t>
+  </si>
+  <si>
+    <t>PyTorch</t>
+  </si>
+  <si>
+    <t>ResNet</t>
+  </si>
+  <si>
+    <t>MobileNet</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -479,11 +502,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -742,4 +765,238 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{746DEC54-0C3E-C946-8431-66ED49C3C848}">
+  <dimension ref="A1:B27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>